--- a/data/trans_bre/P20-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.51932628916225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.5407561718670628</v>
+        <v>-0.5407561718670615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.750377262559557</v>
@@ -649,7 +649,7 @@
         <v>0.2845964403577949</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.07794199751962791</v>
+        <v>-0.07794199751962773</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.237628538688125</v>
+        <v>2.215107148253411</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7947122377707009</v>
+        <v>1.101529814070389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9319177974127547</v>
+        <v>-0.8023165894711449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.124605754094981</v>
+        <v>-3.117090357451038</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.655627805272068</v>
+        <v>0.6217952069490706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0891858780963823</v>
+        <v>0.1222966510130685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1431570211626308</v>
+        <v>-0.1332694302943871</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3825723153171324</v>
+        <v>-0.3639444911360826</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.65163458953245</v>
+        <v>6.583747327046089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.164930134389151</v>
+        <v>7.433156287823184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.31749381593759</v>
+        <v>4.113770395914487</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.962953655286777</v>
+        <v>1.866874885526771</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.943758072112675</v>
+        <v>3.778472582173609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.398423768898783</v>
+        <v>1.394095464278372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.072008731292369</v>
+        <v>0.9930727524180656</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3460838522808368</v>
+        <v>0.3356720187163623</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.916261847777837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.302822499746467</v>
+        <v>1.302822499746469</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.006248669908522</v>
@@ -749,7 +749,7 @@
         <v>0.6527527113624674</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2502015599293874</v>
+        <v>0.2502015599293878</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.870467803356924</v>
+        <v>1.842922206736153</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.75928660742723</v>
+        <v>0.8310290893970961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8102680754692368</v>
+        <v>0.8113680663043533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9539486310367665</v>
+        <v>-1.103038541754294</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3673815581396689</v>
+        <v>0.3793679399381528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1038193976461495</v>
+        <v>0.09720968488353285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1401280799918433</v>
+        <v>0.1348479096631751</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1602946045758421</v>
+        <v>-0.1844744133279339</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.19425450514695</v>
+        <v>6.147223736923394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.453371699348989</v>
+        <v>5.958372500516838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.019688896970285</v>
+        <v>5.006283944185333</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.437534313677258</v>
+        <v>3.318022333026718</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.005671090748243</v>
+        <v>1.956883399680802</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.13795315552812</v>
+        <v>1.178325946867572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.454694823140966</v>
+        <v>1.350987020204309</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8681759367908339</v>
+        <v>0.8370744495714137</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.001851539720136333</v>
+        <v>0.4218324890597212</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1952478097936538</v>
+        <v>0.4268724214578031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2249262540951398</v>
+        <v>0.404998987332284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7498050599817311</v>
+        <v>-0.8162896118921863</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02457991988882683</v>
+        <v>0.0495118223152751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004228073455853179</v>
+        <v>0.04135710918032051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01120485840243772</v>
+        <v>0.07424693496308092</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.13998808928913</v>
+        <v>-0.1543592348474669</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.675341968766034</v>
+        <v>5.853413408250748</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.314590970324989</v>
+        <v>6.227554410107549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.176360034362716</v>
+        <v>5.211519272563363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.590340696591844</v>
+        <v>3.495201564214924</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.237946607954279</v>
+        <v>1.350787733116385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.225014192674367</v>
+        <v>1.204484750896925</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.616741769016021</v>
+        <v>1.542993496101126</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9923756615391688</v>
+        <v>0.9503941315333435</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1452274504516859</v>
+        <v>0.03071425102004992</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8873465642363187</v>
+        <v>0.6870318674179786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.709503925568615</v>
+        <v>1.647407825128305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.61847466866593</v>
+        <v>-1.434647748081305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01539676585978596</v>
+        <v>-0.01432508993813288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1142681231195927</v>
+        <v>0.09535382199709584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2512436138805205</v>
+        <v>0.2725019566881868</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2034856611803079</v>
+        <v>-0.1863259303721452</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.112152820500354</v>
+        <v>4.247428086657369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.467262453473971</v>
+        <v>5.19040480519193</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.334944153850519</v>
+        <v>6.287695471338965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.601232217469617</v>
+        <v>2.569367802099658</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.111316881261656</v>
+        <v>1.119174266953988</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.215286639410551</v>
+        <v>1.114979925244892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.465911131550442</v>
+        <v>1.509311071212233</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4646754209917497</v>
+        <v>0.4715822826649621</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.983126965917824</v>
+        <v>2.227881426608934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.199107104687716</v>
+        <v>2.055173582542575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.735791737262187</v>
+        <v>1.755822430844004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3881148618268761</v>
+        <v>-0.415760886491467</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4218638191572202</v>
+        <v>0.4768149060760889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3316934314949568</v>
+        <v>0.3010210038434271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3242079385881628</v>
+        <v>0.3213538115475555</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06050567122452363</v>
+        <v>-0.06419768240920039</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.265884818084271</v>
+        <v>4.435352910024273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.81303009525502</v>
+        <v>4.78805875084992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.193801161663243</v>
+        <v>4.142630302662547</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.890042234232261</v>
+        <v>1.910414417974372</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.173967434878106</v>
+        <v>1.214121883545566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8810778316629703</v>
+        <v>0.8788365572312932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.002229015490472</v>
+        <v>0.9493041744506555</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3695013053898449</v>
+        <v>0.3667503308151954</v>
       </c>
     </row>
     <row r="19">
